--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministrationBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -692,8 +692,8 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference</t>
+    <t xml:space="preserve">Reference(Medication)
+</t>
   </si>
   <si>
     <t>What was administered</t>
@@ -703,12 +703,6 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -954,7 +948,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -981,106 +975,10 @@
     <t>PID-3-Patient ID List</t>
   </si>
   <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL　リテラル参照、相対、内部、または絶対URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.
-他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")　参照リソースのタイプ</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
-参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known　リテラル参照（reference要素）で記述できない場合の論理ID参照</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.
-ターゲットリソースの識別子。これは、他のリソースを直接参照する方法がない場合に使用される。これは、リソースが表すエンティティがFHIRサーバーを介して利用できないため、またはリソースの作成者が既知の識別子を実際の場所に変換する方法がないためである 。 Reference.identifierが実際にFHIRインスタンスとして公開されているものを指している必要はないが、FHIRインスタンスとして公開されることが期待されるビジネス概念を指している必要があり、そのインスタンスは参照で許可されているFHIRリソースタイプとなる。</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
-参照の代わりに識別子が提供される場合、参照を処理するシステムは、識別子が使用されるビジネスコンテキストを理解している場合にのみ、識別子を参照に解決できる。これはグローバルな場合もあるが（たとえば、国民ID）、そうでない場合もある。このため、参照を操作するために説明されている便利なメカニズム（チェーン、インクルードなど）はどれも不可能であり、サーバーが参照を解決できると期待されるべきではない。サーバーは、識別子ベースの参照をそのまま受け入れ、解決したり、拒否したりする場合がある。CapabilityStatement.rest.resource.referencePolicyを参照。
-識別子とリテラル参照の両方が提供されている場合は、リテラル参照が優先される。リソースを処理するアプリケーションは、識別子がリテラル参照と一致することを確認できるが、確認することは必須ではない。
-論理参照をリテラル参照に変換するアプリケーションは、論理参照を存在させたままにするか、削除するかを選択できる。
-参照は、FHIRリソースとして表現できる可能性のある構造を指すことを目的としているが、実際のFHIRリソースインスタンスとして存在する必要はない。ただし、アプリケーションが参照のターゲットを実際に見つけたい場合を除く。識別子と呼ばれるコンテンツは、参照に許可されるリソースタイプの制限によって暗示される論理的な制約を満たす必要がある。たとえば、タイプがReference（Observation | DiagnosticReport）の場合、薬の処方箋の識別子を送信することは正当ではない。 Reference.identifierのユースケースの1つは、FHIR表現が存在しない状況である（タイプはReference（Any）である）。</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource　リソースの代替テキスト</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.
-リソース参照に加えてリソースを識別するプレーンテキストの説明。</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1224,7 +1122,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1268,7 +1166,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
 </t>
   </si>
   <si>
@@ -1466,50 +1364,13 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
   </si>
   <si>
     <t>RXR-2 Administration Site / RXR-6 Administration Site Modifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.extension</t>
-  </si>
-  <si>
-    <t>siteComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageSite_SiteComment}
-</t>
-  </si>
-  <si>
-    <t>投与部位コメント</t>
-  </si>
-  <si>
-    <t>投与部位コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.text</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route</t>
@@ -1522,10 +1383,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1556,21 +1414,28 @@
     <t>MedicationAdministration.dosage.route.coding</t>
   </si>
   <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.text</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered　投与方法</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is intended to be or was introduced into or on the body.  This attribute will most often NOT be populated.  It is most commonly used for injections.  For example, Slow Push, Deep IV.
-薬物が体内に導入されることを意図している、または体内に導入された方法を示すコード化された値。ほとんどの場合、この属性は入力されないが、注射では最も一般的に使用される。たとえば、スロープッシュ（ゆっくり注射）、ディープIV（深部静脈注射）。</t>
-  </si>
-  <si>
-    <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
@@ -1607,13 +1472,86 @@
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.text</t>
   </si>
   <si>
+    <t>投与⽅法のテキスト表現</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
+  </si>
+  <si>
+    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -1624,144 +1562,17 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1796,6 +1607,19 @@
 </t>
   </si>
   <si>
+    <t>単位時間あたり薬剤の投与量</t>
+  </si>
+  <si>
+    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.rate[x].id</t>
   </si>
   <si>
@@ -1852,23 +1676,10 @@
     <t>rateQuantity</t>
   </si>
   <si>
-    <t>JP Coreでは未使用</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>【JP Core仕様】未使用</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2195,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2204,7 +2015,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2227,8 +2038,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4696,26 +4507,26 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4733,16 +4544,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4753,7 +4564,7 @@
         <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4813,10 +4624,10 @@
         <v>110</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4849,16 +4660,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4866,7 +4677,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4892,10 +4703,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4946,7 +4757,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4964,7 +4775,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4978,7 +4789,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5004,10 +4815,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -5051,7 +4862,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5060,7 +4871,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5078,7 +4889,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5092,7 +4903,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5115,19 +4926,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5176,7 +4987,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5194,13 +5005,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5208,7 +5019,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5234,10 +5045,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5288,7 +5099,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5320,7 +5131,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5346,10 +5157,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5393,7 +5204,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5402,7 +5213,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5231,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5434,7 +5245,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5460,16 +5271,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5518,7 +5329,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5536,13 +5347,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5361,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5576,13 +5387,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5632,7 +5443,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5650,13 +5461,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5664,7 +5475,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5690,14 +5501,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5557,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5764,13 +5575,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5778,7 +5589,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5804,14 +5615,14 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5860,7 +5671,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5878,13 +5689,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5892,7 +5703,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5915,19 +5726,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5994,13 +5805,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6008,7 +5819,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6034,16 +5845,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6092,7 +5903,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6110,13 +5921,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6127,7 +5938,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6149,7 +5960,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>215</v>
@@ -6223,16 +6034,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6240,7 +6051,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6263,16 +6074,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6322,7 +6133,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6337,16 +6148,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6354,7 +6165,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6377,15 +6188,17 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6434,7 +6247,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6446,19 +6259,19 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6466,11 +6279,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6489,16 +6302,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6536,19 +6349,19 @@
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6560,16 +6373,16 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6580,7 +6393,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6588,7 +6401,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6603,16 +6416,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6662,31 +6475,31 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6694,7 +6507,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6705,7 +6518,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6717,17 +6530,15 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6752,13 +6563,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6776,13 +6587,13 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
@@ -6791,16 +6602,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6808,7 +6619,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6828,20 +6639,18 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6890,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6902,13 +6711,13 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>231</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6922,18 +6731,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6942,19 +6751,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>163</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7004,25 +6813,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7036,41 +6845,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7118,31 +6929,31 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7161,7 +6972,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -7173,17 +6984,15 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7208,13 +7017,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7238,7 +7047,7 @@
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -7247,13 +7056,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7264,7 +7073,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7287,17 +7096,15 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7346,7 +7153,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7361,16 +7168,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7378,7 +7185,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7398,16 +7205,16 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7434,13 +7241,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7458,7 +7265,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7479,10 +7286,10 @@
         <v>361</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7490,7 +7297,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7501,7 +7308,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7513,15 +7320,17 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>364</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7570,50 +7379,50 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>363</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>233</v>
+        <v>369</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7625,18 +7434,20 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7684,31 +7495,31 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>233</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7716,11 +7527,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7733,26 +7544,24 @@
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7800,7 +7609,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7812,19 +7621,19 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>129</v>
+        <v>385</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7832,7 +7641,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7843,7 +7652,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7855,15 +7664,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>197</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7888,13 +7699,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7912,13 +7723,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -7927,10 +7738,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7944,7 +7755,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7952,7 +7763,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
@@ -7964,16 +7775,16 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8024,10 +7835,10 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -8036,13 +7847,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>397</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8056,7 +7867,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8067,7 +7878,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -8079,13 +7890,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>228</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8112,13 +7923,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8136,31 +7947,31 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>231</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8168,7 +7979,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8191,17 +8002,15 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8238,19 +8047,17 @@
         <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>236</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8262,29 +8069,31 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8293,7 +8102,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8313,12 +8122,8 @@
       <c r="L54" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8366,31 +8171,31 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>236</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8398,9 +8203,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8421,17 +8228,15 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8480,7 +8285,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>410</v>
+        <v>236</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8489,22 +8294,22 @@
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8512,9 +8317,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8535,17 +8342,15 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8594,7 +8399,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8603,16 +8408,16 @@
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8626,39 +8431,43 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>339</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8706,25 +8515,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>426</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>427</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8738,7 +8547,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8764,10 +8573,10 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8818,7 +8627,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8830,13 +8639,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8850,7 +8659,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8861,7 +8670,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8873,15 +8682,17 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8906,53 +8717,53 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>238</v>
+        <v>418</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8960,11 +8771,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8973,7 +8782,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8985,15 +8794,17 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>431</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -9018,13 +8829,11 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -9042,31 +8851,31 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>238</v>
+        <v>425</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -9074,11 +8883,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9087,7 +8894,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -9099,13 +8906,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>435</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>228</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>229</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9156,25 +8963,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9188,13 +8995,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9213,15 +9018,17 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>439</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>233</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -9258,19 +9065,19 @@
         <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9279,7 +9086,7 @@
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>137</v>
@@ -9288,7 +9095,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9302,11 +9109,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="C63" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9319,26 +9128,22 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9386,7 +9191,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>236</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9404,7 +9209,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9418,7 +9223,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9429,7 +9234,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9438,19 +9243,23 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9498,13 +9307,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>243</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9516,13 +9325,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>446</v>
+        <v>244</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9530,7 +9339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9550,21 +9359,23 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>288</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9588,13 +9399,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9612,7 +9423,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9630,13 +9441,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>453</v>
+        <v>292</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>454</v>
+        <v>293</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9644,7 +9455,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9667,16 +9478,20 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9700,13 +9515,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9724,7 +9539,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>232</v>
+        <v>442</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9736,19 +9551,19 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>233</v>
+        <v>448</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9756,18 +9571,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9779,17 +9594,15 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9826,37 +9639,37 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9870,13 +9683,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9895,15 +9706,17 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>458</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>459</v>
+        <v>233</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9940,19 +9753,19 @@
         <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9970,7 +9783,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9984,9 +9797,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10004,23 +9819,19 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10068,7 +9879,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10080,19 +9891,19 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10100,7 +9911,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10111,7 +9922,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -10123,19 +9934,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>290</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>291</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10172,25 +9983,23 @@
         <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
@@ -10202,13 +10011,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10216,9 +10025,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10236,21 +10047,23 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10274,13 +10087,11 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10298,13 +10109,13 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>243</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
@@ -10316,13 +10127,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>471</v>
+        <v>244</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>472</v>
+        <v>245</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10330,7 +10141,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10356,10 +10167,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10410,7 +10221,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10428,7 +10239,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10442,7 +10253,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10468,10 +10279,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10515,7 +10326,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10524,7 +10335,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10542,7 +10353,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10556,20 +10367,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10578,25 +10387,29 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>476</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>249</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>77</v>
@@ -10638,31 +10451,31 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10670,7 +10483,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10681,7 +10494,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10693,20 +10506,18 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>258</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10754,13 +10565,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10772,13 +10583,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10786,7 +10597,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,19 +10620,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10870,7 +10679,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10888,13 +10697,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10711,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10922,21 +10731,21 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>271</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10960,13 +10769,13 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10984,7 +10793,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>274</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11002,13 +10811,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>487</v>
+        <v>275</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11016,7 +10825,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11036,19 +10845,23 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11096,7 +10909,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11108,19 +10921,19 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -11128,18 +10941,20 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="C79" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -11148,21 +10963,23 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>235</v>
+        <v>473</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11186,31 +11003,29 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11222,19 +11037,19 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11242,11 +11057,9 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11255,7 +11068,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -11267,13 +11080,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>492</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>493</v>
+        <v>228</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>494</v>
+        <v>229</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11324,25 +11137,25 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11356,11 +11169,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11376,23 +11189,21 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11428,19 +11239,19 @@
         <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11452,19 +11263,19 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11472,7 +11283,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11480,7 +11291,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>86</v>
@@ -11495,26 +11306,26 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>77</v>
@@ -11556,7 +11367,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11574,13 +11385,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11588,7 +11399,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11608,19 +11419,19 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>498</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>257</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
+        <v>258</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>501</v>
+        <v>259</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11670,7 +11481,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>497</v>
+        <v>260</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11688,13 +11499,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>502</v>
+        <v>261</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>503</v>
+        <v>262</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11702,7 +11513,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11722,19 +11533,21 @@
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11782,7 +11595,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11794,19 +11607,19 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11814,18 +11627,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11834,21 +11647,21 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11884,43 +11697,43 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11741,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11951,19 +11764,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>507</v>
+        <v>278</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>508</v>
+        <v>279</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>509</v>
+        <v>280</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>510</v>
+        <v>281</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>511</v>
+        <v>282</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12012,7 +11825,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>512</v>
+        <v>283</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12030,13 +11843,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>513</v>
+        <v>284</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>514</v>
+        <v>285</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12044,7 +11857,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12055,36 +11868,36 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P87" t="s" s="2">
-        <v>519</v>
-      </c>
+      <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12104,13 +11917,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12128,7 +11941,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>522</v>
+        <v>291</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12146,13 +11959,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>523</v>
+        <v>292</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>524</v>
+        <v>293</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12160,7 +11973,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12180,21 +11993,21 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>483</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12242,7 +12055,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12251,22 +12064,22 @@
         <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>98</v>
+        <v>487</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>531</v>
+        <v>489</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12274,7 +12087,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12294,21 +12107,21 @@
         <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>100</v>
+        <v>491</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>533</v>
+        <v>492</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12344,19 +12157,17 @@
         <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB89" s="2"/>
       <c r="AC89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12365,7 +12176,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>537</v>
+        <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12374,13 +12185,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12388,9 +12199,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12408,23 +12221,21 @@
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12448,11 +12259,13 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X90" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y90" t="s" s="2">
-        <v>544</v>
+        <v>77</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12470,7 +12283,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12479,22 +12292,22 @@
         <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>98</v>
+        <v>501</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>531</v>
+        <v>129</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12502,7 +12315,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12525,17 +12338,15 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>548</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>549</v>
+        <v>228</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12572,17 +12383,19 @@
         <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB91" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>547</v>
+        <v>230</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12594,19 +12407,19 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>552</v>
+        <v>231</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>553</v>
+        <v>77</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12614,20 +12427,18 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
@@ -12639,16 +12450,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>555</v>
+        <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>549</v>
+        <v>233</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>550</v>
+        <v>234</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>551</v>
+        <v>163</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12686,43 +12497,43 @@
         <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>547</v>
+        <v>236</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>552</v>
+        <v>231</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>77</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12730,9 +12541,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12741,7 +12554,7 @@
         <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
@@ -12753,13 +12566,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>506</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>230</v>
+        <v>507</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>231</v>
+        <v>508</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12810,25 +12623,25 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12842,18 +12655,18 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>77</v>
@@ -12862,20 +12675,18 @@
         <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>131</v>
+        <v>510</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>235</v>
+        <v>511</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -12912,37 +12723,37 @@
         <v>77</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>238</v>
+        <v>513</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>233</v>
+        <v>514</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12956,11 +12767,9 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12969,7 +12778,7 @@
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -12978,16 +12787,16 @@
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13038,25 +12847,25 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>238</v>
+        <v>518</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13070,9 +12879,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="C96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13090,18 +12901,20 @@
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>564</v>
+        <v>521</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
@@ -13150,7 +12963,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>566</v>
+        <v>490</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13159,22 +12972,22 @@
         <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>98</v>
+        <v>487</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>77</v>
@@ -13182,7 +12995,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13193,7 +13006,7 @@
         <v>78</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>77</v>
@@ -13202,18 +13015,20 @@
         <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13262,13 +13077,13 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>571</v>
+        <v>523</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>77</v>
@@ -13280,7 +13095,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13289,236 +13104,6 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -692,17 +692,28 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
-</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -725,6 +736,15 @@
   </si>
   <si>
     <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
@@ -4472,16 +4492,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4507,26 +4527,26 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4544,16 +4564,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4564,7 +4584,7 @@
         <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4574,7 +4594,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4589,13 +4609,13 @@
         <v>197</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4624,10 +4644,10 @@
         <v>110</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4660,16 +4680,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4677,7 +4697,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4703,10 +4723,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4757,7 +4777,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4775,7 +4795,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4789,7 +4809,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4815,10 +4835,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -4862,7 +4882,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -4871,7 +4891,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4889,7 +4909,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4903,7 +4923,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4926,19 +4946,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4987,7 +5007,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5005,13 +5025,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5019,7 +5039,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5045,10 +5065,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5099,7 +5119,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5117,7 +5137,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5131,7 +5151,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5157,10 +5177,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5204,7 +5224,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5213,7 +5233,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5231,7 +5251,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5245,7 +5265,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5271,16 +5291,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5349,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5347,13 +5367,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5361,7 +5381,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5387,13 +5407,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5443,7 +5463,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5461,13 +5481,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5475,7 +5495,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5501,14 +5521,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5557,7 +5577,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5575,13 +5595,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5589,7 +5609,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5597,7 +5617,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5615,14 +5635,14 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5671,7 +5691,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5689,13 +5709,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5703,7 +5723,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5726,19 +5746,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5787,7 +5807,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5805,13 +5825,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5819,7 +5839,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5845,16 +5865,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5903,7 +5923,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5921,13 +5941,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5938,7 +5958,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -5960,16 +5980,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6034,16 +6054,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6051,7 +6071,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6074,16 +6094,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6133,7 +6153,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6148,16 +6168,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6165,7 +6185,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6188,16 +6208,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6247,7 +6267,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6262,16 +6282,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6279,7 +6299,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6302,16 +6322,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6361,7 +6381,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6379,10 +6399,10 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6393,7 +6413,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6416,16 +6436,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6475,7 +6495,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>86</v>
@@ -6490,16 +6510,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6507,7 +6527,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6530,13 +6550,13 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6587,7 +6607,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6602,16 +6622,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6619,7 +6639,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6645,10 +6665,10 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6699,7 +6719,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6717,7 +6737,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6731,7 +6751,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6757,10 +6777,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>163</v>
@@ -6813,7 +6833,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6831,7 +6851,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6845,11 +6865,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6871,10 +6891,10 @@
         <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>163</v>
@@ -6929,7 +6949,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6961,7 +6981,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6987,10 +7007,10 @@
         <v>197</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7020,28 +7040,28 @@
         <v>201</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7056,10 +7076,10 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7073,7 +7093,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7096,13 +7116,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7153,7 +7173,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7168,10 +7188,10 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7185,7 +7205,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7211,10 +7231,10 @@
         <v>197</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7244,28 +7264,28 @@
         <v>201</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7280,16 +7300,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7297,7 +7317,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7320,16 +7340,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7379,7 +7399,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7394,24 +7414,24 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7434,19 +7454,19 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7495,7 +7515,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7510,16 +7530,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7527,7 +7547,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7550,16 +7570,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7609,7 +7629,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7627,13 +7647,13 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7641,7 +7661,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7664,16 +7684,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7723,7 +7743,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7738,10 +7758,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7755,7 +7775,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7778,13 +7798,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7835,7 +7855,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7847,13 +7867,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7867,7 +7887,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7893,10 +7913,10 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7947,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7965,7 +7985,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7979,7 +7999,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8057,7 +8077,7 @@
         <v>135</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8089,10 +8109,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>77</v>
@@ -8114,13 +8134,13 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8171,7 +8191,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8203,10 +8223,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -8228,13 +8248,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8285,7 +8305,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8317,10 +8337,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8342,13 +8362,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8399,7 +8419,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8431,11 +8451,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8457,10 +8477,10 @@
         <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>163</v>
@@ -8515,7 +8535,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8547,7 +8567,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8573,10 +8593,10 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8627,7 +8647,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8645,7 +8665,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8659,7 +8679,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8685,13 +8705,13 @@
         <v>197</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8721,25 +8741,25 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8757,13 +8777,13 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8771,7 +8791,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8797,10 +8817,10 @@
         <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>200</v>
@@ -8833,7 +8853,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8851,7 +8871,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8869,13 +8889,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8883,7 +8903,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8909,10 +8929,10 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8963,7 +8983,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8981,7 +9001,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8995,7 +9015,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9021,10 +9041,10 @@
         <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>163</v>
@@ -9068,7 +9088,7 @@
         <v>134</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
@@ -9077,7 +9097,7 @@
         <v>135</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9095,7 +9115,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9109,10 +9129,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9134,13 +9154,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9191,7 +9211,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9223,7 +9243,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9246,19 +9266,19 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9307,7 +9327,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9325,13 +9345,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9339,7 +9359,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9365,16 +9385,16 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9423,7 +9443,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9441,13 +9461,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9455,7 +9475,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9481,16 +9501,16 @@
         <v>197</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9518,28 +9538,28 @@
         <v>201</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9557,13 +9577,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9571,7 +9591,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9597,10 +9617,10 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9651,7 +9671,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9669,7 +9689,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9683,7 +9703,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9709,10 +9729,10 @@
         <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>163</v>
@@ -9756,7 +9776,7 @@
         <v>134</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>77</v>
@@ -9765,7 +9785,7 @@
         <v>135</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9783,7 +9803,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9797,10 +9817,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -9822,13 +9842,13 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9879,7 +9899,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9911,7 +9931,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9934,19 +9954,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9983,7 +10003,7 @@
         <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
@@ -9993,7 +10013,7 @@
         <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10011,13 +10031,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10025,10 +10045,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
@@ -10050,19 +10070,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10091,7 +10111,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10109,7 +10129,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10127,13 +10147,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10141,7 +10161,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10167,10 +10187,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10221,7 +10241,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10239,7 +10259,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10253,7 +10273,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10279,10 +10299,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10326,7 +10346,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10335,7 +10355,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10353,7 +10373,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10367,7 +10387,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10393,23 +10413,23 @@
         <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>77</v>
@@ -10451,7 +10471,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10469,13 +10489,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10483,7 +10503,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10509,13 +10529,13 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10565,7 +10585,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10583,13 +10603,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10597,7 +10617,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10623,14 +10643,14 @@
         <v>106</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10679,7 +10699,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10697,13 +10717,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10711,7 +10731,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10737,14 +10757,14 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10793,7 +10813,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10811,13 +10831,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10825,7 +10845,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10848,19 +10868,19 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10909,7 +10929,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10927,13 +10947,13 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10941,10 +10961,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -10966,19 +10986,19 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11007,7 +11027,7 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -11025,7 +11045,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11043,13 +11063,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11057,7 +11077,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11083,10 +11103,10 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11137,7 +11157,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11155,7 +11175,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11169,7 +11189,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11195,10 +11215,10 @@
         <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>163</v>
@@ -11242,7 +11262,7 @@
         <v>134</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>77</v>
@@ -11251,7 +11271,7 @@
         <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11269,7 +11289,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11283,7 +11303,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11309,23 +11329,23 @@
         <v>100</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>77</v>
@@ -11367,7 +11387,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11385,13 +11405,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11399,7 +11419,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11425,13 +11445,13 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11481,7 +11501,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11499,13 +11519,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11513,7 +11533,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11539,14 +11559,14 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11595,7 +11615,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11613,13 +11633,13 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11627,7 +11647,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11653,14 +11673,14 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11709,7 +11729,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11727,13 +11747,13 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11741,7 +11761,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11764,19 +11784,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11825,7 +11845,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11843,13 +11863,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11857,7 +11877,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11883,16 +11903,16 @@
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11941,7 +11961,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -11959,13 +11979,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -11973,7 +11993,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11996,16 +12016,16 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12055,7 +12075,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12067,19 +12087,19 @@
         <v>142</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12087,7 +12107,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12110,16 +12130,16 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12157,17 +12177,17 @@
         <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12185,13 +12205,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12199,10 +12219,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>77</v>
@@ -12224,16 +12244,16 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12283,7 +12303,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12295,13 +12315,13 @@
         <v>142</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12315,7 +12335,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12341,10 +12361,10 @@
         <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12395,7 +12415,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12413,7 +12433,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12427,7 +12447,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12453,10 +12473,10 @@
         <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>163</v>
@@ -12500,7 +12520,7 @@
         <v>134</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>77</v>
@@ -12509,7 +12529,7 @@
         <v>135</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12527,7 +12547,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12541,10 +12561,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>77</v>
@@ -12566,13 +12586,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12623,7 +12643,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12655,7 +12675,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12678,13 +12698,13 @@
         <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12735,7 +12755,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12753,7 +12773,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12767,7 +12787,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12790,13 +12810,13 @@
         <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12847,7 +12867,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -12865,7 +12885,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12879,10 +12899,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>77</v>
@@ -12904,16 +12924,16 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12963,7 +12983,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -12975,19 +12995,19 @@
         <v>142</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>77</v>
@@ -12995,7 +13015,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13018,16 +13038,16 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13077,7 +13097,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13095,7 +13115,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -754,6 +754,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4720,13 +4724,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4777,7 +4781,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4795,7 +4799,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4813,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4835,10 +4839,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -4882,7 +4886,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -4891,7 +4895,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4909,7 +4913,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4923,7 +4927,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4946,19 +4950,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5007,7 +5011,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5025,13 +5029,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5039,7 +5043,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5062,13 +5066,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5119,7 +5123,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5137,7 +5141,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5151,7 +5155,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5177,10 +5181,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5224,7 +5228,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5233,7 +5237,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5251,7 +5255,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5265,7 +5269,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5291,16 +5295,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5349,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5367,13 +5371,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5381,7 +5385,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5404,16 +5408,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5463,7 +5467,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5481,13 +5485,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5495,7 +5499,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5521,14 +5525,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5577,7 +5581,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5595,13 +5599,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5609,7 +5613,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5632,17 +5636,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5691,7 +5695,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5709,13 +5713,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5723,7 +5727,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5746,19 +5750,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5807,7 +5811,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5825,13 +5829,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5839,7 +5843,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5862,19 +5866,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5923,7 +5927,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5941,13 +5945,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5958,7 +5962,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -5980,7 +5984,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>226</v>
@@ -6071,7 +6075,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6094,16 +6098,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6153,7 +6157,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6168,16 +6172,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6185,7 +6189,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6208,16 +6212,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6267,7 +6271,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6282,16 +6286,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6299,7 +6303,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6322,16 +6326,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6381,7 +6385,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6399,10 +6403,10 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6413,7 +6417,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6436,16 +6440,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6495,7 +6499,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>86</v>
@@ -6510,16 +6514,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6527,7 +6531,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6550,13 +6554,13 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6607,7 +6611,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6622,16 +6626,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6639,7 +6643,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6662,13 +6666,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6719,7 +6723,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6737,7 +6741,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6751,7 +6755,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6777,10 +6781,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>163</v>
@@ -6833,7 +6837,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6851,7 +6855,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6865,11 +6869,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6891,10 +6895,10 @@
         <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>163</v>
@@ -6949,7 +6953,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6981,7 +6985,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7007,10 +7011,10 @@
         <v>197</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7040,10 +7044,10 @@
         <v>201</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7061,7 +7065,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7076,10 +7080,10 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7093,7 +7097,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7116,13 +7120,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7173,7 +7177,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7188,10 +7192,10 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7205,7 +7209,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7231,10 +7235,10 @@
         <v>197</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7264,10 +7268,10 @@
         <v>201</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7285,7 +7289,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7300,16 +7304,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7317,7 +7321,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7340,16 +7344,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7399,7 +7403,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7414,24 +7418,24 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7454,19 +7458,19 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7515,7 +7519,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7530,16 +7534,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7547,7 +7551,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7570,16 +7574,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7629,7 +7633,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7647,13 +7651,13 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7661,7 +7665,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7684,16 +7688,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7743,7 +7747,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7758,10 +7762,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7775,7 +7779,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7798,13 +7802,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7855,7 +7859,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7867,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7887,7 +7891,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7910,13 +7914,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7967,7 +7971,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7985,7 +7989,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7999,7 +8003,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8077,7 +8081,7 @@
         <v>135</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8109,10 +8113,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>77</v>
@@ -8134,13 +8138,13 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8191,7 +8195,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8223,10 +8227,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -8248,13 +8252,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8305,7 +8309,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8337,10 +8341,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8362,13 +8366,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8419,7 +8423,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8451,11 +8455,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8477,10 +8481,10 @@
         <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>163</v>
@@ -8535,7 +8539,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8567,7 +8571,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8590,13 +8594,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8647,7 +8651,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8665,7 +8669,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8679,7 +8683,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8705,13 +8709,13 @@
         <v>197</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8741,7 +8745,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8759,7 +8763,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8777,13 +8781,13 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8791,7 +8795,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8817,10 +8821,10 @@
         <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>200</v>
@@ -8853,7 +8857,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8871,7 +8875,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8889,13 +8893,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8903,7 +8907,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8926,13 +8930,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8983,7 +8987,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9001,7 +9005,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9015,7 +9019,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9041,10 +9045,10 @@
         <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>163</v>
@@ -9088,7 +9092,7 @@
         <v>134</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
@@ -9097,7 +9101,7 @@
         <v>135</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9115,7 +9119,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9129,10 +9133,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9154,13 +9158,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9211,7 +9215,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9243,7 +9247,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9266,19 +9270,19 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9327,7 +9331,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9345,13 +9349,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9359,7 +9363,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9382,19 +9386,19 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9443,7 +9447,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9461,13 +9465,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9475,7 +9479,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9501,16 +9505,16 @@
         <v>197</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9538,10 +9542,10 @@
         <v>201</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9559,7 +9563,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9577,13 +9581,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9591,7 +9595,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9614,13 +9618,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9671,7 +9675,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9689,7 +9693,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9703,7 +9707,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9729,10 +9733,10 @@
         <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>163</v>
@@ -9776,7 +9780,7 @@
         <v>134</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>77</v>
@@ -9785,7 +9789,7 @@
         <v>135</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9803,7 +9807,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9817,10 +9821,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -9842,13 +9846,13 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9899,7 +9903,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9931,7 +9935,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9954,19 +9958,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10003,7 +10007,7 @@
         <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
@@ -10013,7 +10017,7 @@
         <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10031,13 +10035,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10045,10 +10049,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
@@ -10070,19 +10074,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10111,7 +10115,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10129,7 +10133,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10147,13 +10151,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10161,7 +10165,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10184,13 +10188,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10241,7 +10245,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10259,7 +10263,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10273,7 +10277,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10299,10 +10303,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10346,7 +10350,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10355,7 +10359,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10373,7 +10377,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10387,7 +10391,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10413,23 +10417,23 @@
         <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>77</v>
@@ -10471,7 +10475,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10489,13 +10493,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10503,7 +10507,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10526,16 +10530,16 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10585,7 +10589,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10603,13 +10607,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10617,7 +10621,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10643,14 +10647,14 @@
         <v>106</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10699,7 +10703,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10717,13 +10721,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10731,7 +10735,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10754,17 +10758,17 @@
         <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10813,7 +10817,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10831,13 +10835,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10845,7 +10849,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10868,19 +10872,19 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10929,7 +10933,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10947,13 +10951,13 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10961,10 +10965,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -10986,19 +10990,19 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11027,7 +11031,7 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -11045,7 +11049,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11063,13 +11067,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11077,7 +11081,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11100,13 +11104,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11157,7 +11161,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11175,7 +11179,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11189,7 +11193,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11215,10 +11219,10 @@
         <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>163</v>
@@ -11262,7 +11266,7 @@
         <v>134</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>77</v>
@@ -11271,7 +11275,7 @@
         <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11289,7 +11293,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11303,7 +11307,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11329,23 +11333,23 @@
         <v>100</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>77</v>
@@ -11387,7 +11391,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11405,13 +11409,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11419,7 +11423,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11442,16 +11446,16 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11501,7 +11505,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11519,13 +11523,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11533,7 +11537,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11559,14 +11563,14 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11615,7 +11619,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11633,13 +11637,13 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11647,7 +11651,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11670,17 +11674,17 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11729,7 +11733,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11747,13 +11751,13 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11761,7 +11765,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11784,19 +11788,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11845,7 +11849,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11863,13 +11867,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11877,7 +11881,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11900,19 +11904,19 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11961,7 +11965,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -11979,13 +11983,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -11993,7 +11997,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12016,16 +12020,16 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12075,7 +12079,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12087,19 +12091,19 @@
         <v>142</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12107,7 +12111,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12130,16 +12134,16 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12187,7 +12191,7 @@
         <v>220</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12205,13 +12209,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12219,10 +12223,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>77</v>
@@ -12244,16 +12248,16 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12303,7 +12307,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12315,13 +12319,13 @@
         <v>142</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12335,7 +12339,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12358,13 +12362,13 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12415,7 +12419,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12433,7 +12437,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12447,7 +12451,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12473,10 +12477,10 @@
         <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>163</v>
@@ -12520,7 +12524,7 @@
         <v>134</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>77</v>
@@ -12529,7 +12533,7 @@
         <v>135</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12547,7 +12551,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12561,10 +12565,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>77</v>
@@ -12586,13 +12590,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12643,7 +12647,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12675,7 +12679,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12698,13 +12702,13 @@
         <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12755,7 +12759,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12773,7 +12777,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12787,7 +12791,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12810,13 +12814,13 @@
         <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12867,7 +12871,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -12885,7 +12889,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12899,10 +12903,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>77</v>
@@ -12924,16 +12928,16 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12983,7 +12987,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -12995,19 +12999,19 @@
         <v>142</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>77</v>
@@ -13015,7 +13019,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13038,16 +13042,16 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13097,7 +13101,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13115,7 +13119,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -690,6 +690,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Medication)
+</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -710,12 +714,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -733,233 +731,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -1102,7 +873,32 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1422,6 +1218,9 @@
     <t>MedicationAdministration.dosage.route.extension</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>routeComment</t>
   </si>
   <si>
@@ -1438,6 +1237,10 @@
     <t>MedicationAdministration.dosage.route.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1447,7 +1250,40 @@
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method</t>
@@ -1527,19 +1363,119 @@
     <t>MedicationAdministration.dosage.method.coding.system</t>
   </si>
   <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
   </si>
   <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.version</t>
   </si>
   <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.code</t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.display</t>
   </si>
   <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>unitDigit2</t>
@@ -2030,7 +1966,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2040,7 +1976,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4496,16 +4432,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4531,26 +4467,26 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4568,16 +4504,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4588,17 +4524,17 @@
         <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4610,16 +4546,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4645,13 +4581,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4684,16 +4620,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4701,7 +4637,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4709,7 +4645,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
@@ -4721,18 +4657,20 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4781,10 +4719,10 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
@@ -4793,19 +4731,19 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4813,18 +4751,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4836,16 +4774,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4883,43 +4821,43 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4927,7 +4865,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4935,7 +4873,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -4947,23 +4885,21 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5011,7 +4947,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5029,13 +4965,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5043,7 +4979,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5051,7 +4987,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -5063,18 +4999,20 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5123,10 +5061,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5135,19 +5073,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5155,11 +5093,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5175,20 +5113,18 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5225,19 +5161,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5249,19 +5185,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5269,7 +5205,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5277,7 +5213,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5289,23 +5225,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5353,7 +5285,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5365,19 +5297,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5385,18 +5317,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5405,19 +5337,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5467,31 +5399,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5499,40 +5431,42 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5581,31 +5515,31 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5613,7 +5547,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5633,21 +5567,19 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5671,13 +5603,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5695,7 +5627,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5710,16 +5642,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5727,7 +5659,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5735,7 +5667,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5750,20 +5682,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5811,10 +5739,10 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5826,16 +5754,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5843,7 +5771,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5854,7 +5782,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5863,23 +5791,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>295</v>
       </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5903,13 +5827,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5927,13 +5851,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5942,16 +5866,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5959,11 +5883,9 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5972,7 +5894,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5981,19 +5903,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6043,13 +5965,13 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
@@ -6058,24 +5980,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6083,7 +6005,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>86</v>
@@ -6095,21 +6017,23 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6157,10 +6081,10 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -6172,16 +6096,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6189,7 +6113,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6200,7 +6124,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6212,16 +6136,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6271,13 +6195,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6286,16 +6210,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6227,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6326,16 +6250,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6385,7 +6309,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6400,13 +6324,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6417,7 +6341,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6425,7 +6349,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6437,20 +6361,18 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6499,10 +6421,10 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
@@ -6511,19 +6433,19 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6531,7 +6453,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6542,7 +6464,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6551,16 +6473,16 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6611,31 +6533,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6643,7 +6565,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6654,7 +6576,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6666,13 +6588,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6711,37 +6633,35 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6755,11 +6675,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="C42" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6778,17 +6700,15 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6757,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6846,7 +6766,7 @@
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>137</v>
@@ -6855,7 +6775,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6869,11 +6789,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C43" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6886,26 +6808,22 @@
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6953,7 +6871,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6962,7 +6880,7 @@
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>137</v>
@@ -6971,7 +6889,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6985,9 +6903,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6996,7 +6916,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -7008,13 +6928,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>197</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7041,13 +6961,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7065,25 +6985,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7097,39 +7017,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7177,25 +7101,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7209,7 +7133,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7220,7 +7144,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7232,13 +7156,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7265,13 +7189,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7289,13 +7213,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -7304,16 +7228,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7321,7 +7245,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7332,7 +7256,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7344,16 +7268,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>197</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7379,13 +7303,11 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7403,13 +7325,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -7418,24 +7340,24 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7458,20 +7380,18 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>378</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7495,13 +7415,11 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7519,7 +7437,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7534,16 +7452,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7551,7 +7469,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7562,7 +7480,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7574,17 +7492,15 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>267</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7633,31 +7549,31 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>386</v>
+        <v>269</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7665,11 +7581,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7688,16 +7604,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>393</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>273</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>163</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7735,19 +7651,19 @@
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>274</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7759,13 +7675,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7779,9 +7695,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7790,7 +7708,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7802,13 +7720,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7859,25 +7777,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>399</v>
+        <v>274</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>402</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7891,7 +7809,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7902,7 +7820,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7911,19 +7829,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7971,31 +7893,31 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8003,7 +7925,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8014,7 +7936,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8023,19 +7945,23 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8071,41 +7997,43 @@
         <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8113,11 +8041,9 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8126,7 +8052,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8138,16 +8064,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>407</v>
+        <v>197</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8171,13 +8101,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8195,31 +8125,31 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>241</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8227,11 +8157,9 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8240,7 +8168,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8252,13 +8180,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>268</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8309,25 +8237,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8341,13 +8269,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8366,15 +8292,17 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>272</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8411,19 +8339,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8432,7 +8360,7 @@
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>137</v>
@@ -8441,7 +8369,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8455,11 +8383,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="C57" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8472,26 +8402,22 @@
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8539,7 +8465,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8557,7 +8483,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8571,7 +8497,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8582,7 +8508,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8591,19 +8517,23 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8639,25 +8569,23 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
@@ -8669,13 +8597,13 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8683,9 +8611,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8703,21 +8633,23 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8745,7 +8677,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8763,13 +8695,13 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
@@ -8781,13 +8713,13 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8795,7 +8727,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8818,17 +8750,15 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8853,11 +8783,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8875,7 +8807,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>430</v>
+        <v>269</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8887,19 +8819,19 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>270</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8907,18 +8839,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8930,15 +8862,17 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8975,37 +8909,37 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9019,18 +8953,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9039,27 +8973,29 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>238</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>239</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>77</v>
@@ -9089,43 +9025,43 @@
         <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>241</v>
+        <v>423</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>236</v>
+        <v>424</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9133,11 +9069,9 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9146,7 +9080,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9155,18 +9089,20 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>439</v>
+        <v>266</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9215,31 +9151,31 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>241</v>
+        <v>430</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9247,7 +9183,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9258,7 +9194,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9270,19 +9206,17 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>247</v>
+        <v>436</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9331,13 +9265,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>248</v>
+        <v>437</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9349,13 +9283,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>250</v>
+        <v>439</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9363,7 +9297,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9386,19 +9320,17 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9447,7 +9379,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9465,13 +9397,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>298</v>
+        <v>446</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9499,22 +9431,22 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>197</v>
+        <v>448</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9539,13 +9471,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9563,7 +9495,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9581,13 +9513,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9595,9 +9527,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9615,19 +9549,23 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>233</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9651,13 +9589,11 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9675,31 +9611,31 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9707,18 +9643,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9730,17 +9666,15 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9777,37 +9711,37 @@
         <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9821,13 +9755,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9846,15 +9778,17 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>458</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>459</v>
+        <v>272</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9891,19 +9825,19 @@
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9921,7 +9855,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9935,7 +9869,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9943,10 +9877,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9958,26 +9892,26 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>247</v>
+        <v>421</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -10007,23 +9941,25 @@
         <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>248</v>
+        <v>423</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
@@ -10035,13 +9971,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>249</v>
+        <v>424</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10049,11 +9985,9 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10074,20 +10008,18 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10111,11 +10043,13 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10133,13 +10067,13 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
@@ -10151,13 +10085,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>249</v>
+        <v>431</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>250</v>
+        <v>432</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10165,7 +10099,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10185,19 +10119,21 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>233</v>
+        <v>434</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>234</v>
+        <v>435</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10245,7 +10181,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>235</v>
+        <v>437</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10257,19 +10193,19 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>236</v>
+        <v>438</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10277,18 +10213,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10297,21 +10233,21 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>238</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10347,43 +10283,43 @@
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>241</v>
+        <v>444</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10391,7 +10327,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10399,7 +10335,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -10414,26 +10350,26 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>100</v>
+        <v>448</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>256</v>
+        <v>451</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>77</v>
@@ -10475,7 +10411,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10493,13 +10429,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>259</v>
+        <v>454</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>260</v>
+        <v>455</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10507,7 +10443,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10530,18 +10466,20 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>263</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10589,7 +10527,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10607,13 +10545,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>266</v>
+        <v>391</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10621,7 +10559,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10641,21 +10579,21 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>106</v>
+        <v>467</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>269</v>
+        <v>468</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10703,7 +10641,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10712,22 +10650,22 @@
         <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>273</v>
+        <v>472</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10735,7 +10673,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10755,21 +10693,21 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>232</v>
+        <v>475</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>276</v>
+        <v>476</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10805,19 +10743,17 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>279</v>
+        <v>474</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10835,13 +10771,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>281</v>
+        <v>480</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10849,9 +10785,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10869,23 +10807,21 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>283</v>
+        <v>482</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>284</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>285</v>
+        <v>483</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10933,7 +10869,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>288</v>
+        <v>474</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10942,22 +10878,22 @@
         <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>485</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>289</v>
+        <v>486</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10965,11 +10901,9 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10987,23 +10921,19 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>478</v>
+        <v>267</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11027,11 +10957,13 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X79" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y79" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -11049,31 +10981,31 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11081,18 +11013,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -11104,15 +11036,17 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11149,37 +11083,37 @@
         <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11193,11 +11127,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="C81" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11216,17 +11152,15 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>490</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>238</v>
+        <v>491</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11263,19 +11197,19 @@
         <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11293,7 +11227,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11307,7 +11241,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11315,7 +11249,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>86</v>
@@ -11330,26 +11264,22 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>100</v>
+        <v>494</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>254</v>
+        <v>495</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>77</v>
@@ -11391,7 +11321,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>258</v>
+        <v>497</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11409,13 +11339,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>259</v>
+        <v>498</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11423,7 +11353,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11446,17 +11376,15 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>232</v>
+        <v>494</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>262</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11505,7 +11433,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11523,13 +11451,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11539,7 +11467,9 @@
       <c r="A84" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="C84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11557,21 +11487,21 @@
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>106</v>
+        <v>494</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>269</v>
+        <v>505</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11619,7 +11549,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11628,22 +11558,22 @@
         <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>273</v>
+        <v>472</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11651,7 +11581,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11662,7 +11592,7 @@
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11671,21 +11601,21 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>232</v>
+        <v>508</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>276</v>
+        <v>509</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11733,13 +11663,13 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>279</v>
+        <v>507</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
@@ -11751,1383 +11681,15 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>280</v>
+        <v>512</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB89" s="2"/>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -1538,8 +1538,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t>Ratio
-Quantity</t>
+    <t xml:space="preserve">Ratio
+</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1563,14 +1563,14 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRateRatio}
 </t>
   </si>
   <si>
-    <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+    <t>単位時間内での薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1578,68 +1578,6 @@
   </si>
   <si>
     <t>RTO</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].extension</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>.numerator</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
-  </si>
-  <si>
-    <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】未使用</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1966,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10912,7 +10850,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -10924,15 +10862,17 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -10981,25 +10921,25 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>270</v>
+        <v>492</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11008,688 +10948,6 @@
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1563,7 +1563,7 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRateRatio}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -1538,8 +1538,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+Quantity</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1570,7 +1570,7 @@
     <t>単位時間内での薬剤の容量（体積）</t>
   </si>
   <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1578,6 +1578,307 @@
   </si>
   <si>
     <t>RTO</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].extension</t>
+  </si>
+  <si>
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
+</t>
+  </si>
+  <si>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与量（体積）</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
+  </si>
+  <si>
+    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
+  </si>
+  <si>
+    <t>FHIRの文字列は1MB以上の大きさとなってなはらない(SHALL NOT)。</t>
+  </si>
+  <si>
+    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>投与量（体積）の単位</t>
+  </si>
+  <si>
+    <t>投与量（体積）の単位。</t>
+  </si>
+  <si>
+    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>コード化された単位表現を規定するシステム</t>
+  </si>
+  <si>
+    <t>単位をコード化して表現するシステムについてのID。</t>
+  </si>
+  <si>
+    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
+    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>単位時間</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.value</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>単位時間の単位</t>
+  </si>
+  <si>
+    <t>単位時間の単位。UCUMを使用する。</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].value</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].comparator</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].code</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1904,7 +2205,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1913,7 +2214,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.16796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -10850,7 +11151,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -10862,17 +11163,15 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>488</v>
+        <v>266</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>489</v>
+        <v>267</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -10921,33 +11220,3235 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X88" s="2"/>
+      <c r="Y88" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X89" s="2"/>
+      <c r="Y89" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X96" s="2"/>
+      <c r="Y96" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X97" s="2"/>
+      <c r="Y97" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG79" t="s" s="2">
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI102" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1567,7 +1567,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
@@ -1606,7 +1606,7 @@
 </t>
   </si>
   <si>
-    <t>投与量（体積）</t>
+    <t>投与量</t>
   </si>
   <si>
     <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -1683,10 +1683,10 @@
     <t>MedicationAdministration.dosage.rate[x].numerator.unit</t>
   </si>
   <si>
-    <t>投与量（体積）の単位</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位。</t>
+    <t>投与量の単位</t>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
   </si>
   <si>
     <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
